--- a/not yet clear concept.xlsx
+++ b/not yet clear concept.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Callable</t>
   </si>
@@ -134,13 +134,268 @@
       </rPr>
       <t> of keyword arguments</t>
     </r>
+  </si>
+  <si>
+    <t xml:space="preserve">To simply put it, a namespace is a collection of names.
+</t>
+  </si>
+  <si>
+    <t>Namespace </t>
+  </si>
+  <si>
+    <t>Python Variable Scope</t>
+  </si>
+  <si>
+    <t>A scope is the portion of a program from where a namespace can be accessed directly without any prefix.</t>
+  </si>
+  <si>
+    <t>At any given moment, there are at least three nested scopes.</t>
+  </si>
+  <si>
+    <t>1. Scope of the current function which has local names</t>
+  </si>
+  <si>
+    <t>2. Scope of the module which has global names</t>
+  </si>
+  <si>
+    <t>3. Outermost scope which has built-in names</t>
+  </si>
+  <si>
+    <t>When a reference is made inside a function, the name is searched in the local namespace,</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> then in the global namespace and finally in the built-in namespace.</t>
+  </si>
+  <si>
+    <t>Example of Scope and Namespace in Python</t>
+  </si>
+  <si>
+    <r>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> outer_function():</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    b = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>20</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00008B"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>def</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF000000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t xml:space="preserve"> inner_func():</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        c = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>30</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">a = </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF800000"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>10</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Here, the variable </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> is in the global namespace. Variable </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> is in the local namespace of </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>outer_function()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t> and c is in the nested local namespace of inner_function().</t>
+  </si>
+  <si>
+    <r>
+      <t>When we are in </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>inner_function()</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>c</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> is local to us, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> is nonlocal and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>a</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t> is global.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> We can read as well as assign new values to c but can only read b and a from inner_function()</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="8">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -192,16 +447,74 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF25265E"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFC00000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF00008B"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF800000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -209,16 +522,58 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFD3DCE6"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFD3DCE6"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFD3DCE6"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFD3DCE6"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -226,6 +581,145 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>271554</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>541020</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>144779</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1025" name="Picture 1" descr="Nested Namespaces in Python Programming"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8542020" y="2938554"/>
+          <a:ext cx="2971800" cy="2829785"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1026" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:srcRect t="-518" r="17489"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="9806940" y="6096000"/>
+          <a:ext cx="2804160" cy="2956560"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>449580</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>137160</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="1027" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2278380" y="9814560"/>
+          <a:ext cx="4998720" cy="5532120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="1">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd type="none" w="med" len="med"/>
+        </a:ln>
+        <a:effectLst/>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -537,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="B3:C9"/>
+  <dimension ref="B3:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -548,28 +1042,136 @@
     <col min="1" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:3">
+    <row r="3" spans="2:10">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3">
+    <row r="4" spans="2:10">
       <c r="C4" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3">
+    <row r="5" spans="2:10">
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:3">
+    <row r="9" spans="2:10">
       <c r="C9" s="4" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" ht="22.8">
+      <c r="B11" s="7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10">
+      <c r="B12" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10">
+      <c r="G13" s="6"/>
+    </row>
+    <row r="14" spans="2:10">
+      <c r="B14" s="8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10">
+      <c r="D15" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15"/>
+    </row>
+    <row r="16" spans="2:10">
+      <c r="D16" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4">
+      <c r="D17" s="10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="3:4">
+      <c r="D18" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4">
+      <c r="D19" s="10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="3:4">
+      <c r="C21" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="3:4">
+      <c r="C22" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="3:4" ht="21.6" thickBot="1">
+      <c r="C25" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="3:4" ht="21.6" thickBot="1">
+      <c r="C26" s="11" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="3:4" ht="21.6" thickBot="1">
+      <c r="C27" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="3:4" ht="21.6" thickBot="1">
+      <c r="C28" s="12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="3:4" ht="21.6" thickBot="1">
+      <c r="C29" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" spans="3:4" ht="21.6" thickBot="1">
+      <c r="C30" s="13"/>
+    </row>
+    <row r="31" spans="3:4" ht="21.6" thickBot="1">
+      <c r="C31" s="14" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="3:4">
+      <c r="C32" s="15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3">
+      <c r="C33" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3">
+      <c r="C34" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3">
+      <c r="C35" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/not yet clear concept.xlsx
+++ b/not yet clear concept.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Python" sheetId="1" r:id="rId1"/>
     <sheet name="Javascript" sheetId="2" r:id="rId2"/>
     <sheet name="Django" sheetId="3" r:id="rId3"/>
+    <sheet name="Web" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>Callable</t>
   </si>
@@ -389,15 +390,25 @@
   </si>
   <si>
     <t xml:space="preserve"> We can read as well as assign new values to c but can only read b and a from inner_function()</t>
+  </si>
+  <si>
+    <t>Header_token</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -541,39 +552,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1033,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B3:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -1174,4 +1186,27 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:2">
+      <c r="B5" s="16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>